--- a/docs/Sprint_Planning_DCPE_2A_05_Group5.xlsx
+++ b/docs/Sprint_Planning_DCPE_2A_05_Group5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ichatspedu-my.sharepoint.com/personal/prahadeesh_23_ichat_sp_edu_sg/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\DevOps\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{3AEEFAE1-06D2-457F-B4EA-EA88690CBA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5C0CCF-4DCF-439B-A01C-AC49E80BD1DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E23CC-EEC4-41F3-A583-52C0BBFB9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22455" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprints" sheetId="3" r:id="rId1"/>
@@ -476,10 +476,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,21 +743,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:I12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" customWidth="1"/>
-    <col min="6" max="6" width="42.7265625" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -781,7 +777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4">
         <v>1</v>
       </c>
@@ -802,7 +798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4">
         <v>2</v>
       </c>
@@ -824,7 +820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4">
         <v>3</v>
       </c>
@@ -846,7 +842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="19" t="s">
         <v>37</v>
       </c>
@@ -856,7 +852,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="4">
         <v>4</v>
       </c>
@@ -877,7 +873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>5</v>
       </c>
@@ -896,10 +892,10 @@
         <v>45500</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>6</v>
       </c>
@@ -918,10 +914,10 @@
         <v>45514</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E12" s="18" t="s">
         <v>42</v>
       </c>
@@ -980,14 +976,14 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="47.54296875" customWidth="1"/>
-    <col min="4" max="4" width="49.81640625" customWidth="1"/>
-    <col min="5" max="5" width="41.26953125" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
@@ -998,102 +994,102 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1111,25 +1107,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
-    <col min="2" max="2" width="9.1796875" style="7"/>
-    <col min="3" max="3" width="36.26953125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="36.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="32" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="15" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="8"/>
+    <col min="9" max="9" width="14.42578125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1155,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -1181,7 +1177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <f>B4+1</f>
         <v>2</v>
@@ -1208,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <f>B5+1</f>
         <v>3</v>
@@ -1235,9 +1231,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <f t="shared" ref="B6:B69" si="0">B6+1</f>
+        <f t="shared" ref="B7:B69" si="0">B6+1</f>
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1262,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1289,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1316,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1329,7 +1325,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1342,7 +1338,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1355,7 +1351,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1368,7 +1364,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1381,7 +1377,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1394,7 +1390,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1407,7 +1403,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1420,7 +1416,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1433,7 +1429,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1446,7 +1442,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1459,7 +1455,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1472,7 +1468,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1485,7 +1481,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1498,7 +1494,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1511,7 +1507,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1524,7 +1520,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1537,7 +1533,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1550,7 +1546,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1563,7 +1559,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1576,7 +1572,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1589,7 +1585,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1602,7 +1598,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1615,7 +1611,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1628,7 +1624,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1641,7 +1637,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1654,7 +1650,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1667,7 +1663,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1680,7 +1676,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1693,7 +1689,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1706,7 +1702,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1719,7 +1715,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1732,7 +1728,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1745,7 +1741,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1758,7 +1754,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1771,7 +1767,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1784,7 +1780,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1797,7 +1793,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1810,7 +1806,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1823,7 +1819,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1836,7 +1832,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1849,7 +1845,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1862,7 +1858,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1875,7 +1871,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1888,7 +1884,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1901,7 +1897,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1914,7 +1910,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1927,7 +1923,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1940,7 +1936,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1953,7 +1949,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1966,7 +1962,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1979,7 +1975,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1992,7 +1988,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2005,7 +2001,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2018,7 +2014,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2031,7 +2027,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2044,7 +2040,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2057,7 +2053,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2070,7 +2066,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2083,7 +2079,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2096,7 +2092,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
         <f t="shared" ref="B70:B103" si="1">B69+1</f>
         <v>67</v>
@@ -2109,7 +2105,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2122,7 +2118,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2135,7 +2131,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2148,7 +2144,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2161,7 +2157,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2174,7 +2170,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2187,7 +2183,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2200,7 +2196,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2213,7 +2209,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2226,7 +2222,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2239,7 +2235,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2252,7 +2248,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2265,7 +2261,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2278,7 +2274,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2291,7 +2287,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2304,7 +2300,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2317,7 +2313,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2330,7 +2326,7 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2343,7 +2339,7 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2356,7 +2352,7 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -2369,7 +2365,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2382,7 +2378,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2395,7 +2391,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2408,7 +2404,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2421,7 +2417,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2434,7 +2430,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2447,7 +2443,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2460,7 +2456,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2475,7 +2471,7 @@
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2488,7 +2484,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2501,7 +2497,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2514,7 +2510,7 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2527,7 +2523,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2576,13 +2572,13 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -2632,17 +2628,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -2657,9 +2653,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2821,26 +2820,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B031464-E075-40CE-877F-DBE6219E7B4D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A76368-52EE-4CED-9A8C-007D3E8E358A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2864,9 +2852,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A76368-52EE-4CED-9A8C-007D3E8E358A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B031464-E075-40CE-877F-DBE6219E7B4D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>